--- a/biology/Botanique/Carduus_carlinoides/Carduus_carlinoides.xlsx
+++ b/biology/Botanique/Carduus_carlinoides/Carduus_carlinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chardon fausse carline
-Le chardon fausse carline (Carduus carlinoides) est une espèce de plante à fleurs de la famille des Asteraceae. C'est une plante herbacée aux fleurs couleur rouge pourpre, endémique des Pyrénées et des montagnes de la péninsule Ibérique[1].
+Le chardon fausse carline (Carduus carlinoides) est une espèce de plante à fleurs de la famille des Asteraceae. C'est une plante herbacée aux fleurs couleur rouge pourpre, endémique des Pyrénées et des montagnes de la péninsule Ibérique.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Carduus carlinoides a été décrite par le botaniste français Antoine Gouan en 1773[2].
-Synonymie
-Carduus hispanicus Bory ex DC.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Carduus carlinoides a été décrite par le botaniste français Antoine Gouan en 1773.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carduus_carlinoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carduus_carlinoides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carduus hispanicus Bory ex DC.
 Carduus paniculatus (Lam.) Dulac
 Carduus pyrenaicus (L.) Kazmi
 Carlina pyrenaica L.
@@ -525,31 +574,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Carduus_carlinoides</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carduus_carlinoides</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-espèces
 Carduus carlinoides subsp. carlinoides
@@ -557,31 +608,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Carduus_carlinoides</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Carduus_carlinoides</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chardon fausse carline est une astéracée (composée) de 10 à 40 cm. C'est une plante vivace très épineuse, velue-blanchâtre. Les capitules sont nombreux, ovoïdes, à fleurs pourpres en corymbe.
 </t>
